--- a/output_data/2-2.5.xlsx
+++ b/output_data/2-2.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\soccerpro\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF652668-CB62-4573-8CC6-3F661553D9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB4107-BB70-4C52-9C72-22F6E6C1C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="271">
   <si>
     <t>index</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Hypothesis</t>
   </si>
   <si>
+    <t>Scores</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/xfurRkgA/#/match-summary</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>('Slough', '2TIW')</t>
   </si>
   <si>
+    <t>0 - 1</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/d28hKstQ/#/match-summary</t>
   </si>
   <si>
@@ -289,6 +295,9 @@
     <t>('Illertissen', '2TIH')</t>
   </si>
   <si>
+    <t>2 - 2</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/pYsFD5w2/#/match-summary</t>
   </si>
   <si>
@@ -346,6 +355,9 @@
     <t>('Arsenal W', '2TIH')</t>
   </si>
   <si>
+    <t>2 - 0</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/OxblQDR7/#/match-summary</t>
   </si>
   <si>
@@ -436,6 +448,9 @@
     <t>('Arezzo', '2TIH')</t>
   </si>
   <si>
+    <t>2 - 3</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/SIbpwbKO/#/match-summary</t>
   </si>
   <si>
@@ -469,6 +484,9 @@
     <t>('Barendrecht', '2TIH')</t>
   </si>
   <si>
+    <t>2 - 5</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/MJdPh2pT/#/match-summary</t>
   </si>
   <si>
@@ -490,18 +508,15 @@
     <t>('Dominican Republic', '1TIW')</t>
   </si>
   <si>
-    <t>2 - 0</t>
-  </si>
-  <si>
     <t>['Antigua and Barbuda', 'Bermuda']</t>
   </si>
   <si>
-    <t>0 - 1</t>
-  </si>
-  <si>
     <t>('Antigua and Barbuda', '2TIW')</t>
   </si>
   <si>
+    <t>1 - 6</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/EJfxHgJs/#/match-summary</t>
   </si>
   <si>
@@ -607,9 +622,6 @@
     <t>('Maldonado', '1TIW')</t>
   </si>
   <si>
-    <t>2 - 2</t>
-  </si>
-  <si>
     <t>['Danubio', 'Defensor Sp.']</t>
   </si>
   <si>
@@ -670,9 +682,6 @@
     <t>['Navbahor Namangan', 'Andijan']</t>
   </si>
   <si>
-    <t>2 - 3</t>
-  </si>
-  <si>
     <t>('Andijan', '2TIH')</t>
   </si>
   <si>
@@ -703,6 +712,9 @@
     <t>('Monagas', '2TIH')</t>
   </si>
   <si>
+    <t>1 - 2</t>
+  </si>
+  <si>
     <t>https://www.flashscore.com.ng/match/QLSw6cu2/#/match-summary</t>
   </si>
   <si>
@@ -764,6 +776,9 @@
   </si>
   <si>
     <t>('Ruthin', '2TIW')</t>
+  </si>
+  <si>
+    <t>3 - 0</t>
   </si>
   <si>
     <t>https://www.flashscore.com.ng/match/x6kLNlx1/#/match-summary</t>
@@ -824,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +851,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -870,16 +905,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1180,16 +1220,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1250,193 +1292,205 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P5">
         <v>13</v>
@@ -1453,52 +1507,55 @@
       <c r="T5" t="b">
         <v>0</v>
       </c>
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P6">
         <v>11</v>
@@ -1515,52 +1572,55 @@
       <c r="T6" t="b">
         <v>0</v>
       </c>
+      <c r="V6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P7">
         <v>18</v>
@@ -1577,52 +1637,55 @@
       <c r="T7" t="b">
         <v>0</v>
       </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P8">
         <v>9</v>
@@ -1639,52 +1702,55 @@
       <c r="T8" t="b">
         <v>0</v>
       </c>
+      <c r="V8" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P9">
         <v>4</v>
@@ -1701,52 +1767,55 @@
       <c r="T9" t="b">
         <v>0</v>
       </c>
+      <c r="V9" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>108</v>
+      <c r="B10" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P10">
         <v>16</v>
@@ -1760,55 +1829,58 @@
       <c r="S10">
         <v>5</v>
       </c>
-      <c r="T10" t="b">
+      <c r="T10" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P11">
         <v>11</v>
@@ -1825,52 +1897,55 @@
       <c r="T11" t="b">
         <v>0</v>
       </c>
+      <c r="V11" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -1884,55 +1959,58 @@
       <c r="S12">
         <v>4</v>
       </c>
-      <c r="T12" t="b">
+      <c r="T12" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V12" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P13">
         <v>13</v>
@@ -1949,52 +2027,55 @@
       <c r="T13" t="b">
         <v>0</v>
       </c>
+      <c r="V13" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>149</v>
+      <c r="B14" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -2011,52 +2092,55 @@
       <c r="T14" t="b">
         <v>0</v>
       </c>
+      <c r="V14" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>160</v>
+      <c r="B15" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P15">
         <v>11</v>
@@ -2070,55 +2154,58 @@
       <c r="S15">
         <v>5</v>
       </c>
-      <c r="T15" t="b">
+      <c r="T15" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P16">
         <v>9</v>
@@ -2135,52 +2222,55 @@
       <c r="T16" t="b">
         <v>0</v>
       </c>
+      <c r="V16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
         <v>56</v>
       </c>
-      <c r="K17" t="s">
-        <v>54</v>
-      </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
         <v>56</v>
       </c>
-      <c r="N17" t="s">
-        <v>54</v>
-      </c>
       <c r="O17" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P17">
         <v>6</v>
@@ -2197,52 +2287,55 @@
       <c r="T17" t="b">
         <v>0</v>
       </c>
+      <c r="V17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I18" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P18">
         <v>15</v>
@@ -2256,55 +2349,58 @@
       <c r="S18">
         <v>11</v>
       </c>
-      <c r="T18" t="b">
+      <c r="T18" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V18" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P19">
         <v>12</v>
@@ -2321,52 +2417,55 @@
       <c r="T19" t="b">
         <v>0</v>
       </c>
+      <c r="V19" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -2383,52 +2482,55 @@
       <c r="T20" t="b">
         <v>0</v>
       </c>
+      <c r="V20" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P21">
         <v>14</v>
@@ -2442,55 +2544,58 @@
       <c r="S21">
         <v>1</v>
       </c>
-      <c r="T21" t="b">
+      <c r="T21" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V21" t="s">
+        <v>230</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P22">
         <v>16</v>
@@ -2504,55 +2609,58 @@
       <c r="S22">
         <v>8</v>
       </c>
-      <c r="T22" t="b">
+      <c r="T22" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V22" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I23" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P23">
         <v>9</v>
@@ -2569,52 +2677,55 @@
       <c r="T23" t="b">
         <v>0</v>
       </c>
+      <c r="V23" t="s">
+        <v>252</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" t="s">
+        <v>256</v>
+      </c>
+      <c r="G24" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" t="s">
+        <v>258</v>
+      </c>
+      <c r="I24" t="s">
+        <v>259</v>
+      </c>
+      <c r="J24" t="s">
+        <v>260</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
         <v>250</v>
       </c>
-      <c r="E24" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" t="s">
-        <v>251</v>
-      </c>
-      <c r="G24" t="s">
-        <v>252</v>
-      </c>
-      <c r="H24" t="s">
-        <v>253</v>
-      </c>
-      <c r="I24" t="s">
-        <v>254</v>
-      </c>
-      <c r="J24" t="s">
-        <v>255</v>
-      </c>
-      <c r="K24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L24" t="s">
-        <v>246</v>
-      </c>
       <c r="M24" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="N24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P24">
         <v>10</v>
@@ -2628,55 +2739,58 @@
       <c r="S24">
         <v>6</v>
       </c>
-      <c r="T24" t="b">
+      <c r="T24" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="V24" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F25" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H25" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L25" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O25" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P25">
         <v>10</v>
@@ -2690,11 +2804,19 @@
       <c r="S25">
         <v>6</v>
       </c>
-      <c r="T25" t="b">
+      <c r="T25" s="3" t="b">
         <v>1</v>
+      </c>
+      <c r="V25" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" location="/match-summary" xr:uid="{96AABACC-D516-4CAA-BA03-9C32B04CC7E0}"/>
+    <hyperlink ref="B15" r:id="rId2" location="/match-summary" xr:uid="{6943D35D-02B1-4E67-AE32-90D65BEC52E0}"/>
+    <hyperlink ref="B10" r:id="rId3" location="/match-summary" xr:uid="{A87ABF66-F346-454C-9ABF-80BC9B19901D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output_data/2-2.5.xlsx
+++ b/output_data/2-2.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\soccerpro\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FB4107-BB70-4C52-9C72-22F6E6C1C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883D28C-B470-43F6-94ED-12E7FB912AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,18 +851,21 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -873,12 +876,48 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -909,14 +948,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1223,7 +1270,7 @@
   <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1389,7 @@
       <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1392,7 +1439,7 @@
       <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1446,68 +1493,68 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>13</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>7</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="4">
         <v>15</v>
       </c>
-      <c r="T5" t="b">
+      <c r="T5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1576,263 +1623,263 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>18</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>13</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>4</v>
       </c>
-      <c r="T7" t="b">
+      <c r="T7" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>9</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>3</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>8</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>10</v>
       </c>
-      <c r="T8" t="b">
+      <c r="T8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="4">
         <v>4</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="4">
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="4">
         <v>8</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="4">
         <v>10</v>
       </c>
-      <c r="T9" t="b">
+      <c r="T9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>16</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>20</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>14</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="6">
         <v>5</v>
       </c>
-      <c r="T10" s="3" t="b">
+      <c r="T10" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1962,267 +2009,267 @@
       <c r="T12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>13</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <v>15</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <v>9</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="6">
         <v>4</v>
       </c>
-      <c r="T13" t="b">
+      <c r="T13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="4">
         <v>3</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>8</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="4">
         <v>4</v>
       </c>
-      <c r="T14" t="b">
+      <c r="T14" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>11</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <v>7</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="6">
         <v>5</v>
       </c>
-      <c r="T15" s="3" t="b">
+      <c r="T15" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="V15" t="s">
+      <c r="V15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>9</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>1</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>10</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>12</v>
       </c>
-      <c r="T16" t="b">
+      <c r="T16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2356,68 +2403,68 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="4">
         <v>12</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="4">
         <v>1</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="4">
         <v>4</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="4">
         <v>10</v>
       </c>
-      <c r="T19" t="b">
+      <c r="T19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2482,7 +2529,7 @@
       <c r="T20" t="b">
         <v>0</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2547,7 +2594,7 @@
       <c r="T21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2616,133 +2663,133 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>9</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="6">
         <v>6</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="6">
         <v>11</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="6">
         <v>12</v>
       </c>
-      <c r="T23" t="b">
+      <c r="T23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="V23" t="s">
+      <c r="V23" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="6">
         <v>10</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="6">
         <v>12</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="6">
         <v>5</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="6">
         <v>6</v>
       </c>
-      <c r="T24" s="3" t="b">
+      <c r="T24" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2816,6 +2863,7 @@
     <hyperlink ref="B14" r:id="rId1" location="/match-summary" xr:uid="{96AABACC-D516-4CAA-BA03-9C32B04CC7E0}"/>
     <hyperlink ref="B15" r:id="rId2" location="/match-summary" xr:uid="{6943D35D-02B1-4E67-AE32-90D65BEC52E0}"/>
     <hyperlink ref="B10" r:id="rId3" location="/match-summary" xr:uid="{A87ABF66-F346-454C-9ABF-80BC9B19901D}"/>
+    <hyperlink ref="B23" r:id="rId4" location="/match-summary" xr:uid="{1BD4E548-F594-4C70-B645-8B68099B5CA5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output_data/2-2.5.xlsx
+++ b/output_data/2-2.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\SoccerPro\soccerpro\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B883D28C-B470-43F6-94ED-12E7FB912AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E49346C-7D3B-49C9-AD4A-40E6229C29F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -839,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,13 +861,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -875,8 +868,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,38 +908,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF9999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF3366FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -946,24 +948,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1269,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,1528 +1348,1531 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>13</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>7</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>3</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>15</v>
       </c>
-      <c r="T5" s="4" t="b">
+      <c r="T5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>11</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>9</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>7</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>17</v>
       </c>
-      <c r="T6" t="b">
+      <c r="T6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>18</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>13</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>3</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>4</v>
       </c>
-      <c r="T7" s="4" t="b">
+      <c r="T7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>9</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>3</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>8</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>10</v>
       </c>
-      <c r="T8" s="4" t="b">
+      <c r="T8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>4</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>1</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>8</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>10</v>
       </c>
-      <c r="T9" s="4" t="b">
+      <c r="T9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="8">
         <v>16</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="8">
         <v>20</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="8">
         <v>14</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="8">
         <v>5</v>
       </c>
-      <c r="T10" s="8" t="b">
+      <c r="T10" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="U10" s="12"/>
+      <c r="V10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>11</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="3">
         <v>7</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>8</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="3">
         <v>12</v>
       </c>
-      <c r="T11" t="b">
+      <c r="T11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>16</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="3">
         <v>5</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>11</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="3">
         <v>4</v>
       </c>
-      <c r="T12" s="3" t="b">
+      <c r="T12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="8">
         <v>13</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="8">
         <v>15</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8">
         <v>9</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="8">
         <v>4</v>
       </c>
-      <c r="T13" s="6" t="b">
+      <c r="T13" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="U13" s="12"/>
+      <c r="V13" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>3</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>8</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <v>1</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <v>4</v>
       </c>
-      <c r="T14" s="4" t="b">
+      <c r="T14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V14" s="12" t="s">
+      <c r="V14" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <v>11</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="3">
         <v>8</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="3">
         <v>7</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <v>5</v>
       </c>
-      <c r="T15" s="8" t="b">
+      <c r="T15" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="V15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="3">
         <v>9</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="3">
         <v>1</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="3">
         <v>10</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="3">
         <v>12</v>
       </c>
-      <c r="T16" s="6" t="b">
+      <c r="T16" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V16" s="12" t="s">
+      <c r="V16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>6</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="3">
         <v>1</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>3</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="3">
         <v>12</v>
       </c>
-      <c r="T17" t="b">
+      <c r="T17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>15</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="3">
         <v>3</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>16</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="3">
         <v>11</v>
       </c>
-      <c r="T18" s="3" t="b">
+      <c r="T18" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V18" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="O19" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="3">
         <v>12</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>1</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>4</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="3">
         <v>10</v>
       </c>
-      <c r="T19" s="4" t="b">
+      <c r="T19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="V19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>6</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="3">
         <v>7</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="3">
         <v>10</v>
       </c>
-      <c r="T20" t="b">
+      <c r="T20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="V20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>14</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="3">
         <v>13</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>12</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="3">
         <v>1</v>
       </c>
-      <c r="T21" s="3" t="b">
+      <c r="T21" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V21" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>16</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
         <v>14</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="3">
         <v>8</v>
       </c>
-      <c r="T22" s="3" t="b">
+      <c r="T22" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
+    <row r="23" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="3">
         <v>9</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="3">
         <v>6</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="3">
         <v>11</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="3">
         <v>12</v>
       </c>
-      <c r="T23" s="6" t="b">
+      <c r="T23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="V23" s="6" t="s">
+      <c r="V23" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="24" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="3">
         <v>10</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="3">
         <v>12</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="3">
         <v>5</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="3">
         <v>6</v>
       </c>
-      <c r="T24" s="8" t="b">
+      <c r="T24" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V24" s="12" t="s">
+      <c r="V24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>10</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="3">
         <v>12</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>5</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="3">
         <v>6</v>
       </c>
-      <c r="T25" s="3" t="b">
+      <c r="T25" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="3" t="s">
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/match-summary" xr:uid="{96AABACC-D516-4CAA-BA03-9C32B04CC7E0}"/>
-    <hyperlink ref="B15" r:id="rId2" location="/match-summary" xr:uid="{6943D35D-02B1-4E67-AE32-90D65BEC52E0}"/>
-    <hyperlink ref="B10" r:id="rId3" location="/match-summary" xr:uid="{A87ABF66-F346-454C-9ABF-80BC9B19901D}"/>
-    <hyperlink ref="B23" r:id="rId4" location="/match-summary" xr:uid="{1BD4E548-F594-4C70-B645-8B68099B5CA5}"/>
+    <hyperlink ref="B10" r:id="rId1" location="/match-summary" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" location="/match-summary" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" location="/match-summary" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B23" r:id="rId4" location="/match-summary" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>